--- a/Tutorials/Tut8eq.xlsx
+++ b/Tutorials/Tut8eq.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\1_CBI 310\2017\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reube\Documents\GitHub\Biochemical-engineering-notes\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4607BA-D8FD-4862-95D3-058079B27F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>7(ATP)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,15 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,66 +349,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-0.1</v>
       </c>
       <c r="B2">
-        <v>-0.1</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="C2">
-        <v>0.11200000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
+        <v>-0.7</v>
+      </c>
+      <c r="E2">
+        <v>-0.3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.4</v>
-      </c>
-      <c r="E2">
-        <v>-0.7</v>
-      </c>
-      <c r="F2">
-        <v>-0.3</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
       </c>
       <c r="H2">
         <v>0.4</v>
@@ -423,31 +415,28 @@
       <c r="I2">
         <v>0.4</v>
       </c>
-      <c r="J2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-0.1</v>
+      </c>
+      <c r="D3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-0.1</v>
-      </c>
       <c r="E3">
-        <v>0.4</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="F3">
-        <v>0.6333333333333333</v>
+        <v>-0.4</v>
       </c>
       <c r="G3">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H3">
         <v>-0.3</v>
@@ -455,13 +444,10 @@
       <c r="I3">
         <v>-0.3</v>
       </c>
-      <c r="J3">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -470,163 +456,139 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E4">
-        <v>0.16666666666666666</v>
+        <v>-0.39999999999999997</v>
       </c>
       <c r="F4">
-        <v>-0.39999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
         <v>0.1</v>
       </c>
       <c r="I4">
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D5">
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F5">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-2.5500000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.3</v>
+      </c>
+      <c r="I6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D7">
+        <v>-0.1</v>
+      </c>
+      <c r="E7">
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="J4">
-        <v>-0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E5">
-        <v>-0.19999999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.4</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-2.5500000000000002E-2</v>
-      </c>
-      <c r="D6">
-        <v>-9.9999999999999992E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.15</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>-0.3</v>
-      </c>
-      <c r="J6">
+      <c r="H7">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-1.8169999999999999</v>
+      </c>
+      <c r="C8">
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.1</v>
-      </c>
-      <c r="F7">
-        <v>-0.39999999999999997</v>
-      </c>
-      <c r="G7">
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="H7">
-        <v>0.1</v>
-      </c>
-      <c r="I7">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-1.8169999999999999</v>
-      </c>
-      <c r="D8">
-        <v>-6.6666666666666666E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="F8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G8">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <v>-0.2</v>
-      </c>
-      <c r="J8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
